--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceFourColumns.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceFourColumns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="360" windowWidth="14940" windowHeight="8985"/>
@@ -93,12 +93,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -106,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,15 +160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC40087"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -187,21 +178,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FFC40087"/>
+        <color theme="0"/>
       </top>
       <bottom style="medium">
-        <color theme="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,13 +296,7 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +311,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -328,35 +326,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF7030A0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7030A0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7030A0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7030A0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -384,13 +354,6 @@
           <color rgb="FF7030A0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -430,13 +393,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>107155</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>715522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -459,8 +422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226218" y="0"/>
-          <a:ext cx="11072813" cy="773906"/>
+          <a:off x="226218" y="58383"/>
+          <a:ext cx="11072813" cy="657139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,7 +810,7 @@
   <dimension ref="A1:P1061"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1 F8:F1048576 F5:F6 H1 H8:H1048576 H5:H6 J1 J8:J1048576 J5:J6 L1 L8:L1048576 L5:L6 C8:L1060"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,41 +842,41 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:15" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:15" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:15" s="20" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -937,14 +900,14 @@
       <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -14549,13 +14512,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:L1060">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C8=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MATCH("*RECKITT*",$D8,0)&gt;-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M8="PINK"</formula>
     </cfRule>
   </conditionalFormatting>
